--- a/Components/Enabled_Controller_Mini_BOM.xlsx
+++ b/Components/Enabled_Controller_Mini_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Enabled-Controller-Mini\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stephenm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0931B0-C47E-4D62-9155-1B395CBA2170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7646DD5D-79CD-4C16-82D8-9A1308BFDDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Index</t>
   </si>
@@ -83,24 +83,6 @@
     <t>CP-43514-ND</t>
   </si>
   <si>
-    <t>36-4701-ND</t>
-  </si>
-  <si>
-    <t>36-9309-ND</t>
-  </si>
-  <si>
-    <t>MACH SCREW PAN HEAD SLOTTED 6-32</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/4701/316272</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/9309/2746088</t>
-  </si>
-  <si>
-    <t>HEX NUT 0.245" STEEL 6-32</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/4600/13543375</t>
   </si>
   <si>
@@ -120,6 +102,18 @@
   </si>
   <si>
     <t>CONN HDR 7POS 0.1 GOLD</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/dialight/51513030250F/4965201</t>
+  </si>
+  <si>
+    <t>350-3746-ND</t>
+  </si>
+  <si>
+    <t>51513030250F</t>
+  </si>
+  <si>
+    <t>LIGHTPIPE PNL MT DOME 0.250"</t>
   </si>
 </sst>
 </file>
@@ -179,30 +173,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -571,13 +559,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>4600</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
         <v>8.31</v>
@@ -586,7 +574,7 @@
         <v>8.31</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I2"/>
       <c r="J2"/>
@@ -599,13 +587,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>0.84</v>
@@ -614,7 +602,7 @@
         <v>0.84</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -676,69 +664,53 @@
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="10">
-        <v>4701</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.15</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1.63</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10">
-        <v>9309</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
       <c r="I7"/>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
     </row>
@@ -748,8 +720,13 @@
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <f>F2*B2+F3*B3+F4*B4+F5*B5+F6*B6</f>
+        <v>19.689999999999998</v>
+      </c>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -760,13 +737,8 @@
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10">
-        <f>F2*B2+F3*B3+F4*B4+F5*B5+F6*B6+F7*B7</f>
-        <v>19.260000000000002</v>
-      </c>
+      <c r="F10"/>
+      <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -784,33 +756,19 @@
       <c r="J11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="H13" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="H12" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{7F734AD5-2ECA-40F7-A5CE-C5DEF5C93822}"/>
     <hyperlink ref="H4" r:id="rId2" xr:uid="{701E6E80-BE8A-4941-A46E-83BDD619D55E}"/>
     <hyperlink ref="H2" r:id="rId3" xr:uid="{56B0595D-98AE-4748-9AC9-C718094D26A8}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{2FFF1290-1E84-4F07-99B8-567479417876}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{52359737-FFB5-4289-8BA5-9CE4DDD30DB4}"/>
-    <hyperlink ref="H5" r:id="rId6" xr:uid="{B2CCB8BB-2472-4812-A0D7-C6C6FBAB8C45}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{B2CCB8BB-2472-4812-A0D7-C6C6FBAB8C45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>